--- a/RatingUniversity/Files/24_summi_respublikanskih_grantov.xlsx
+++ b/RatingUniversity/Files/24_summi_respublikanskih_grantov.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dilechka\Desktop\last scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Repositories\Raiting\RatingUniversity\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="summi_uzb_grantov" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>_____________________________________________да иқтисодиёт тармоқлари буюртмалари бўйича ўтказилган</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>...</t>
-  </si>
-  <si>
-    <t>Жами</t>
   </si>
   <si>
     <t xml:space="preserve">(ОТМнинг номи)                                                                                   </t>
@@ -74,7 +71,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -238,18 +235,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -259,6 +244,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -540,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H15"/>
+  <dimension ref="A2:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -560,93 +557,93 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
+      <c r="A3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:8" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="15" t="s">
+    <row r="7" spans="1:8" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="15" t="s">
+      <c r="G7" s="11" t="s">
         <v>12</v>
       </c>
+      <c r="H7" s="11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13">
+      <c r="A8" s="9">
         <v>1</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="9">
         <v>2</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="9">
         <v>3</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="9">
         <v>4</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="9">
         <v>5</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="9">
         <v>6</v>
       </c>
       <c r="G8" s="3">
@@ -701,39 +698,12 @@
       </c>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="4">
-        <f>SUM(C9:C11)</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="4">
-        <f t="shared" ref="D12:G12" si="1">SUM(D9:D11)</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:G2"/>
